--- a/xlsx/蓝领_intext.xlsx
+++ b/xlsx/蓝领_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>蓝领</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_蓝领</t>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_蓝领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%8D%B7%E7%A7%91%E6%8A%80</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%AE%E9%90%B5</t>
   </si>
   <si>
-    <t>紮鐵</t>
+    <t>紮铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%B4%BB%E5%9E%8B%E6%85%8B</t>
   </si>
   <si>
-    <t>生活型態</t>
+    <t>生活型态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A8</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%BB%A0</t>
   </si>
   <si>
-    <t>工廠</t>
+    <t>工厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A0%98</t>
   </si>
   <si>
-    <t>白領</t>
+    <t>白领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%86%E5%B8%83</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%8D%B7%E8%8F%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>愛荷華州</t>
+    <t>爱荷华州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%AA%E6%B0%B4</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E9%87%91</t>
   </si>
   <si>
-    <t>現金</t>
+    <t>现金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%AF%E7%A5%A8</t>
@@ -107,31 +107,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%AA%E7%8F%AD%E5%B7%A5%E4%BD%9C%E5%88%B6</t>
   </si>
   <si>
-    <t>輪班工作制</t>
+    <t>轮班工作制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E5%82%B7%E5%AE%B3</t>
   </si>
   <si>
-    <t>職業傷害</t>
+    <t>职业伤害</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>醫療保險</t>
+    <t>医疗保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
+    <t>工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%B7%E5%B7%A5</t>
   </si>
   <si>
-    <t>罷工</t>
+    <t>罢工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A8%E5%8A%9B</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>無產階級</t>
+    <t>无产阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%89%E9%A0%98%E6%97%8F</t>
   </si>
   <si>
-    <t>粉領族</t>
+    <t>粉领族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E9%A2%86</t>
@@ -197,9 +197,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E4%BA%A7%E9%98%B6%E7%BA%A7</t>
   </si>
   <si>
-    <t>无产阶级</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E6%B0%93%E6%97%A0%E4%BA%A7%E9%98%B6%E7%BA%A7</t>
   </si>
   <si>
@@ -215,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E5%A5%B4</t>
   </si>
   <si>
-    <t>農奴</t>
+    <t>农奴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E6%B0%91</t>
@@ -233,7 +230,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B1%A4%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>上層階級</t>
+    <t>上层阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BA%A7%E9%98%B6%E7%BA%A7</t>
@@ -257,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E6%B2%BB%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>統治階級</t>
+    <t>统治阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B6</t>
@@ -287,7 +284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B3%E5%A3%AB%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>紳士階級</t>
+    <t>绅士阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E5%8F%91%E6%88%B7</t>
@@ -1561,7 +1558,7 @@
         <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -1587,10 +1584,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1616,10 +1613,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1645,10 +1642,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1674,10 +1671,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1703,10 +1700,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1732,10 +1729,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1761,10 +1758,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1790,10 +1787,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1819,10 +1816,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1848,10 +1845,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1877,10 +1874,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1906,10 +1903,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1935,10 +1932,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1964,10 +1961,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -1993,10 +1990,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2022,10 +2019,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2051,10 +2048,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2080,10 +2077,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2109,10 +2106,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2138,10 +2135,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>8</v>
@@ -2167,10 +2164,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>

--- a/xlsx/蓝领_intext.xlsx
+++ b/xlsx/蓝领_intext.xlsx
@@ -29,7 +29,7 @@
     <t>中國</t>
   </si>
   <si>
-    <t>政策_政策_美國_蓝领</t>
+    <t>体育运动_体育运动_草根_蓝领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%8D%B7%E7%A7%91%E6%8A%80</t>
